--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3814.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3814.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.657300613432082</v>
+        <v>6.528881549835205</v>
       </c>
       <c r="B1">
-        <v>2.18004906718959</v>
+        <v>6.952014923095703</v>
       </c>
       <c r="C1">
-        <v>3.434531503093709</v>
+        <v>5.399936199188232</v>
       </c>
       <c r="D1">
-        <v>5.015317095308798</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.5551510385139987</v>
+        <v>3.801798820495605</v>
       </c>
     </row>
   </sheetData>
